--- a/work sheet.xlsx
+++ b/work sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>AUGUST WORKING DAYS</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t xml:space="preserve">September working </t>
   </si>
+  <si>
+    <t>weekly off</t>
+  </si>
 </sst>
 </file>
 
@@ -55,6 +58,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,7 +548,7 @@
   <dimension ref="A2:BL16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1008,6 +1012,21 @@
       <c r="D15" t="s">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:64" ht="18">
       <c r="A16" s="3" t="s">
@@ -1019,10 +1038,24 @@
       <c r="D16" t="s">
         <v>1</v>
       </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
